--- a/verification/opt_results/exp21_normal_0.0078125.xlsx
+++ b/verification/opt_results/exp21_normal_0.0078125.xlsx
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
